--- a/GISData/bin/Release/Report/分乡镇面积统计表.xlsx
+++ b/GISData/bin/Release/Report/分乡镇面积统计表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数据验收平台建设\GISData\GISData\bin\Debug\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数据验收平台建设\GISData\GISData\bin\Release\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,6 +28,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>分乡镇面积统计表</t>
+  </si>
+  <si>
     <t>单位：亩</t>
   </si>
   <si>
@@ -37,14 +40,10 @@
     <t>营造林方式</t>
   </si>
   <si>
-    <t>自查上班年度</t>
+    <t>自查上报班年度</t>
   </si>
   <si>
     <t>工程类别</t>
-  </si>
-  <si>
-    <t>分乡镇面积统计表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,12 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -439,61 +437,57 @@
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="1" t="e">
         <f ca="1">DYNAMICCOL("XIANG")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="e">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="e">
         <f ca="1">FIELD("YZLGLDW")</f>
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="2" t="e">
+      <c r="B4" s="1" t="e">
         <f ca="1">FIELD("YZLFS")</f>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="2" t="e">
+      <c r="C4" s="1" t="e">
         <f ca="1">FIELD("ZCSBND")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="2" t="e">
+      <c r="D4" s="1" t="e">
         <f ca="1">FIELD("GCLB")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="2" t="e">
+      <c r="E4" s="1" t="e">
         <f ca="1">DYNAMICFIELD("XIANG")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V4" s="2" t="e">
-        <f ca="1">FIELD("GCLB")</f>
         <v>#NAME?</v>
       </c>
     </row>
